--- a/excel-templates/chapter08.xlsx
+++ b/excel-templates/chapter08.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aubur\github\reliability\courses\logm634-asam\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350508EA-27F6-4AC2-AE52-A452A11F720E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="14232" windowHeight="8700" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14235" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Life Cycle Cost" sheetId="3" r:id="rId1"/>
@@ -17,17 +18,24 @@
     <sheet name="AGREE" sheetId="1" r:id="rId3"/>
     <sheet name="Safety Factor" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Charles Ebeling</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -814,13 +822,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1455,19 +1463,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1477,53 +1485,53 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1535,16 +1543,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="24" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1665,7 +1673,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="18" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,13 +1715,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -1725,7 +1733,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E92FB-AA30-4E7A-99FA-C7B1E9FB9B3D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1745,7 +1753,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -1756,15 +1763,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2097,27 +2095,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
         <v>25</v>
       </c>
@@ -2131,7 +2129,7 @@
       <c r="I1" s="102"/>
       <c r="J1" s="102"/>
     </row>
-    <row r="2" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="103"/>
       <c r="B2" s="44" t="s">
         <v>47</v>
@@ -2161,25 +2159,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="104" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="42">
-        <v>1000</v>
+        <v>225</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="46">
         <f>B4*B3</f>
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="E3" s="59">
-        <v>1200</v>
+        <v>245</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="46">
         <f>E4*E3</f>
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="H3" s="42">
         <v>900</v>
@@ -2190,17 +2188,17 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="43">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="48"/>
       <c r="E4" s="60">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="48"/>
@@ -2210,7 +2208,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
         <v>40</v>
       </c>
@@ -2239,31 +2237,31 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="42">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" s="51">
         <f>B4*B6</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="50">
         <f>C6*B19</f>
-        <v>18480.169012675535</v>
+        <v>0</v>
       </c>
       <c r="E6" s="59">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F6" s="51">
         <f>E4*E6</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="50">
         <f>F6*E19</f>
-        <v>36960.33802535107</v>
+        <v>0</v>
       </c>
       <c r="H6" s="42">
         <v>250</v>
@@ -2274,28 +2272,28 @@
       </c>
       <c r="J6" s="50">
         <f>I6*H19</f>
-        <v>54662.022857207463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+        <v>44316.258182244004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="105" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="42">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="50">
         <f>B7</f>
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="E7" s="59">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="50">
         <f>E7</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="42">
         <v>2000</v>
@@ -2306,31 +2304,31 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="42">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C8" s="51">
         <f>B4*B8</f>
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="50">
         <f>C8*B19</f>
-        <v>554405.07038026606</v>
+        <v>0</v>
       </c>
       <c r="E8" s="59">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F8" s="51">
         <f>E4*E8</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="50">
         <f>F8*E19</f>
-        <v>462004.22531688836</v>
+        <v>0</v>
       </c>
       <c r="H8" s="42">
         <v>3100</v>
@@ -2341,34 +2339,34 @@
       </c>
       <c r="J8" s="50">
         <f>I8*H19</f>
-        <v>677809.08342937264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+        <v>549521.60145982564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="42">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="C9" s="51">
         <f>(B10/B13)*B4*B9</f>
-        <v>70000</v>
+        <v>373.58968295413911</v>
       </c>
       <c r="D9" s="50">
         <f>C9*B19</f>
-        <v>646805.91544364369</v>
+        <v>2884.7605040500539</v>
       </c>
       <c r="E9" s="59">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="F9" s="51">
         <f>(E10/E13)*E4*E9</f>
-        <v>55555.555555555555</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G9" s="50">
         <f>F9*E19</f>
-        <v>513338.02812987595</v>
+        <v>2969.8980496864642</v>
       </c>
       <c r="H9" s="42">
         <v>125</v>
@@ -2379,20 +2377,20 @@
       </c>
       <c r="J9" s="50">
         <f>I9*H19</f>
-        <v>496927.48052006797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+        <v>402875.07438403647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="43">
-        <v>2000</v>
+        <v>8760</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="60">
-        <v>2000</v>
+        <v>8760</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="48"/>
@@ -2402,7 +2400,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="105" t="s">
         <v>37</v>
       </c>
@@ -2422,25 +2420,25 @@
       <c r="I11" s="47"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="105" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="42">
-        <v>-25</v>
+        <v>60</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="50">
         <f>B20*B12*B4</f>
-        <v>-432.38962556338208</v>
+        <v>3683.4795212445556</v>
       </c>
       <c r="E12" s="59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="50">
         <f>E20*E12*E4</f>
-        <v>0</v>
+        <v>2455.6530141630374</v>
       </c>
       <c r="H12" s="42">
         <v>10</v>
@@ -2448,20 +2446,20 @@
       <c r="I12" s="47"/>
       <c r="J12" s="50">
         <f>H20*H12*H4</f>
-        <v>168.00271832748825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111.3674836355119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="43">
-        <v>100</v>
+        <v>93792.74</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="60">
-        <v>90</v>
+        <v>79716</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="48"/>
@@ -2471,12 +2469,12 @@
       <c r="I13" s="47"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="67">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="48"/>
@@ -2487,12 +2485,12 @@
       <c r="I14" s="47"/>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="69">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="48"/>
@@ -2503,29 +2501,29 @@
       <c r="I15" s="47"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="108"/>
       <c r="B16" s="113" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="68">
         <f>C6+C8+C9</f>
-        <v>132000</v>
+        <v>373.58968295413911</v>
       </c>
       <c r="D16" s="61">
         <f>SUM(D3:D12)</f>
-        <v>1244258.765211022</v>
+        <v>33368.24002529461</v>
       </c>
       <c r="E16" s="117" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="62">
         <f>F6+F8+F9</f>
-        <v>109555.55555555556</v>
+        <v>384.61538461538464</v>
       </c>
       <c r="G16" s="61">
         <f>SUM(G3:G12)</f>
-        <v>1040302.5914721154</v>
+        <v>29925.551063849503</v>
       </c>
       <c r="H16" s="117" t="s">
         <v>44</v>
@@ -2536,10 +2534,10 @@
       </c>
       <c r="J16" s="63">
         <f>SUM(J3:J12)</f>
-        <v>1251566.5895249755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1018824.3015097417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="114" t="s">
         <v>50</v>
@@ -2547,50 +2545,50 @@
       <c r="C17" s="70"/>
       <c r="D17" s="71">
         <f>D16/B11</f>
-        <v>124425.8765211022</v>
+        <v>3336.8240025294608</v>
       </c>
       <c r="E17" s="118"/>
       <c r="F17" s="56"/>
       <c r="G17" s="57">
         <f>G16/E11</f>
-        <v>104030.25914721153</v>
+        <v>2992.5551063849502</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="56"/>
       <c r="J17" s="57">
         <f>J16/H11</f>
-        <v>104297.21579374796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84902.025125811808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="110" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="54">
         <f>(1+B15)/(1+B14)-1</f>
-        <v>1.4634146341463428E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="73">
         <f>B3*B4+B5+B7</f>
-        <v>25000</v>
+        <v>26800</v>
       </c>
       <c r="E18" s="54">
         <f>B18</f>
-        <v>1.4634146341463428E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="75">
         <f>E3*E4+E5+E7</f>
-        <v>28000</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="54">
         <f>B18</f>
-        <v>1.4634146341463428E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I18" s="74" t="s">
         <v>51</v>
@@ -2600,64 +2598,64 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="111" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="54">
         <f>((1+B18)^B11-1)/(B18*(1+B18)^B11)</f>
-        <v>9.2400845063377677</v>
+        <v>7.721734929184807</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
       <c r="E19" s="54">
         <f>((1+E18)^E11-1)/(E18*(1+E18)^E11)</f>
-        <v>9.2400845063377677</v>
+        <v>7.721734929184807</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="48"/>
       <c r="H19" s="54">
         <f>((1+H18)^H11-1)/(H18*(1+H18)^H11)</f>
-        <v>10.932404571441493</v>
+        <v>8.8632516364488012</v>
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="112" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="55">
         <f>1/(1+B18)^B11</f>
-        <v>0.86477925112676424</v>
+        <v>0.61391325354075932</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="53"/>
       <c r="E20" s="55">
         <f>1/(1+E18)^E11</f>
-        <v>0.86477925112676424</v>
+        <v>0.61391325354075932</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="53"/>
       <c r="H20" s="55">
         <f>1/(1+H18)^H11</f>
-        <v>0.84001359163744138</v>
+        <v>0.5568374181775595</v>
       </c>
       <c r="I20" s="52"/>
       <c r="J20" s="53"/>
     </row>
-    <row r="21" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="40"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>34</v>
       </c>
@@ -2671,7 +2669,7 @@
   </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="D6" formula="1"/>
@@ -2681,23 +2679,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="100" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2704,7 @@
       <c r="E1" s="98"/>
       <c r="F1" s="101"/>
     </row>
-    <row r="2" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="119"/>
       <c r="C2" s="120" t="s">
         <v>17</v>
@@ -2717,7 +2715,7 @@
       </c>
       <c r="F2" s="122"/>
     </row>
-    <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="123"/>
       <c r="C3" s="124" t="s">
         <v>15</v>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="F3" s="126"/>
     </row>
-    <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="123"/>
       <c r="C4" s="124" t="s">
         <v>16</v>
@@ -2741,7 +2739,7 @@
       <c r="E4" s="125"/>
       <c r="F4" s="126"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>18</v>
@@ -2758,7 +2756,7 @@
         <v>yr</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="127" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="97">
         <v>1</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>4.6731417880197922E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="97">
         <v>2</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>1.0013875260042411E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="97">
         <v>3</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>2.6703667360113096E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="97">
         <v>4</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>5.5632640333568961E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="97">
         <v>5</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>7.788569646699653E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="97">
         <v>6</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>4.0055501040169642E-5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="97">
         <v>7</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>1.2684241996053721E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="97">
         <v>8</v>
       </c>
@@ -2865,7 +2863,7 @@
         <v>8.9012224533710331E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="97">
         <v>9</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>8.0111002080339281E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="97">
         <v>10</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>2.0472811642753374E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="97">
         <v>11</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>7.788569646699653E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="97">
         <v>12</v>
       </c>
@@ -2913,7 +2911,7 @@
         <v>1.001387526004241E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="97">
         <v>13</v>
       </c>
@@ -2925,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="97">
         <v>14</v>
       </c>
@@ -2937,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="97">
         <v>15</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="97">
         <v>16</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="97">
         <v>17</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="97">
         <v>18</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="97">
         <v>19</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="97">
         <v>20</v>
       </c>
@@ -3009,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="129" t="s">
         <v>21</v>
       </c>
@@ -3036,23 +3034,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3059,7 @@
       <c r="E1" s="97"/>
       <c r="F1" s="99"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="130" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3074,7 @@
       </c>
       <c r="F2" s="141"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
         <v>12</v>
       </c>
@@ -3085,7 +3083,7 @@
       <c r="E3" s="102"/>
       <c r="F3" s="143"/>
     </row>
-    <row r="4" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="132" t="s">
         <v>1</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="133">
         <v>1</v>
       </c>
@@ -3120,7 +3118,7 @@
         <v>0.99811262246650456</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="134">
         <v>2</v>
       </c>
@@ -3138,7 +3136,7 @@
         <v>0.99886714563970191</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="134">
         <v>3</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>0.99826348149129029</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="134">
         <v>4</v>
       </c>
@@ -3174,7 +3172,7 @@
         <v>0.99472431511655646</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="134">
         <v>5</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="134">
         <v>6</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="134">
         <v>7</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="134">
         <v>8</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="134">
         <v>9</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="135">
         <v>10</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="136"/>
       <c r="C15" s="137"/>
       <c r="D15" s="138"/>
@@ -3295,7 +3293,7 @@
         <v>0.99992443642008244</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="132" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3311,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="133">
         <v>1</v>
       </c>
@@ -3334,7 +3332,7 @@
         <v>0.99811262246650456</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="134">
         <v>2</v>
       </c>
@@ -3355,7 +3353,7 @@
         <v>0.99886714563970191</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="134">
         <v>3</v>
       </c>
@@ -3376,7 +3374,7 @@
         <v>0.99826348149129029</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="134">
         <v>4</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>0.99472431511655646</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="134">
         <v>5</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="134">
         <v>6</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="134">
         <v>7</v>
       </c>
@@ -3460,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="134">
         <v>8</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="134">
         <v>9</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="135">
         <v>10</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="136" t="s">
         <v>13</v>
       </c>
@@ -3558,25 +3556,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
         <v>60</v>
       </c>
@@ -3587,7 +3585,7 @@
       <c r="F1" s="97"/>
       <c r="G1" s="99"/>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="144"/>
       <c r="B2" s="145" t="s">
         <v>52</v>
@@ -3606,7 +3604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>63</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="154"/>
       <c r="C5" s="81"/>
@@ -3653,7 +3651,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="85"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="155"/>
       <c r="B6" s="130"/>
       <c r="C6" s="157" t="s">
@@ -3668,7 +3666,7 @@
       </c>
       <c r="G6" s="141"/>
     </row>
-    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="156" t="s">
         <v>65</v>
       </c>
@@ -3710,7 +3708,7 @@
       </c>
       <c r="G8" s="163"/>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="158" t="s">
         <v>66</v>
@@ -3732,7 +3730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="159" t="s">
         <v>61</v>
       </c>
@@ -3748,7 +3746,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="94"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="77">
         <v>1</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>0.54855374696239689</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="77">
         <v>2</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>0.35674909728746074</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="77">
         <v>3</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>0.26347954206751478</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="77">
         <v>4</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>0.20871385908647155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="77">
         <v>5</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>0.17275049304389078</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="77">
         <v>6</v>
       </c>
@@ -3904,7 +3902,7 @@
         <v>0.14734145895482853</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="77">
         <v>7</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>0.12844069048108564</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="77">
         <v>8</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>0.11383378563434854</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="77">
         <v>9</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>0.10220781281159697</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="77">
         <v>10</v>
       </c>
@@ -4008,7 +4006,7 @@
         <v>9.2735271037358236E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="77">
         <v>11</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>8.4868847774113632E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="77">
         <v>12</v>
       </c>
@@ -4060,7 +4058,7 @@
         <v>7.8232139068664219E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="77">
         <v>13</v>
       </c>
@@ -4086,7 +4084,7 @@
         <v>7.2557793862376707E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="77">
         <v>14</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>6.7650700136201336E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="77">
         <v>15</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>6.3365136546799428E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="77">
         <v>16</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>5.9590077927191287E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="77">
         <v>17</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>5.6239451197366619E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="77">
         <v>18</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>5.324549983248017E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="77">
         <v>19</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>5.0554158537434057E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="77">
         <v>20</v>
       </c>
@@ -4286,13 +4284,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>220980</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
